--- a/RUDN/Importance/Varible_f_reg_in_Central Asia.xlsx
+++ b/RUDN/Importance/Varible_f_reg_in_Central Asia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
     <t>F-value</t>
   </si>
@@ -22,82 +22,223 @@
     <t>p-value</t>
   </si>
   <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
     <t>School enrollment, tertiary, female (% gross)</t>
   </si>
   <si>
-    <t>School enrollment, tertiary (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
   </si>
   <si>
     <t>Population ages 80 and older, male (% of male population)</t>
   </si>
   <si>
+    <t>Years</t>
+  </si>
+  <si>
     <t>Internet users (per 100 people)</t>
   </si>
   <si>
-    <t>Years</t>
-  </si>
-  <si>
-    <t>Tertiary education, academic staff (% female)</t>
+    <t>Health expenditure, total (% of GDP)</t>
   </si>
   <si>
     <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
   </si>
   <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, male (%)</t>
+  </si>
+  <si>
     <t>Gross graduation ratio, primary, female (%)</t>
   </si>
   <si>
-    <t>Gross graduation ratio, primary, male (%)</t>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
   </si>
   <si>
     <t>Population ages 25-29, female (% of female population)</t>
   </si>
   <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
     <t>Age population, age 02, male, interpolated</t>
   </si>
   <si>
+    <t>Progression to secondary school, male (%)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Male population 00-04</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
     <t>Age population, age 03, male, interpolated</t>
   </si>
   <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Male population 00-04</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 00-04</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 80+</t>
   </si>
   <si>
     <t>Mortality rate, under-5 (per 1,000 live births)</t>
@@ -106,91 +247,49 @@
     <t>Mortality rate, under-5 (per 1,000)</t>
   </si>
   <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 00-04</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Age population, age 01, female, interpolated</t>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Male population 55-59</t>
+  </si>
+  <si>
+    <t>Age population, age 05, male, interpolated</t>
   </si>
   <si>
     <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, male</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Male population 55-59</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% net)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Age population, age 05, male, interpolated</t>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
   </si>
   <si>
     <t>Male population 60-64</t>
@@ -199,436 +298,379 @@
     <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
   </si>
   <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Female population 25-29</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Female population 55-59</t>
+  </si>
+  <si>
+    <t>Male population 25-29</t>
+  </si>
+  <si>
+    <t>Age population, age 06, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 25, male, interpolated</t>
+  </si>
+  <si>
+    <t>Rural population</t>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (current US$)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 06, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 24, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 50-54</t>
+  </si>
+  <si>
+    <t>Age population, age 23, female, interpolated</t>
   </si>
   <si>
     <t>Mortality rate, neonatal (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Female population 55-59</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Age population, age 06, male, interpolated</t>
+    <t>Age population, age 23, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 50-54</t>
+  </si>
+  <si>
+    <t>Male population 05-09</t>
+  </si>
+  <si>
+    <t>Female population 60-64</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Male population 20-24</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
+    <t>Female population 20-24</t>
+  </si>
+  <si>
+    <t>Female population 05-09</t>
+  </si>
+  <si>
+    <t>Age population, age 22, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, total</t>
+  </si>
+  <si>
+    <t>Male population 75-79</t>
   </si>
   <si>
     <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
   </si>
   <si>
-    <t>Female population 25-29</t>
-  </si>
-  <si>
-    <t>Female population 60-64</t>
-  </si>
-  <si>
-    <t>Male population 25-29</t>
-  </si>
-  <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Age population, age 25, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 50-54</t>
-  </si>
-  <si>
-    <t>Age population, age 25, male, interpolated</t>
-  </si>
-  <si>
-    <t>Rural population</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 30-34</t>
+  </si>
+  <si>
+    <t>Population, male</t>
+  </si>
+  <si>
+    <t>Labor force, total</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male</t>
+  </si>
+  <si>
+    <t>Population, total</t>
   </si>
   <si>
     <t>Population ages 25-29, male (% of male population)</t>
   </si>
   <si>
-    <t>Age population, age 24, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 50-54</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Male population 05-09</t>
-  </si>
-  <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 75-79</t>
-  </si>
-  <si>
-    <t>Female population 05-09</t>
-  </si>
-  <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>Male population 30-34</t>
-  </si>
-  <si>
-    <t>Labor force, total</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, total</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
-    <t>Population, male</t>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, total</t>
   </si>
   <si>
     <t>Female population 30-34</t>
   </si>
   <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male</t>
-  </si>
-  <si>
-    <t>Male population 20-24</t>
-  </si>
-  <si>
-    <t>Population, total</t>
+    <t>Population ages 15-64, female</t>
+  </si>
+  <si>
+    <t>Population, female</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Age population, age 21, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 35-39</t>
+  </si>
+  <si>
+    <t>Labor force, female</t>
+  </si>
+  <si>
+    <t>Age population, age 08, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 35-39</t>
   </si>
   <si>
     <t>Children orphaned by HIV/AIDS</t>
   </si>
   <si>
-    <t>Age population, age 22, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, total</t>
-  </si>
-  <si>
-    <t>Female population 20-24</t>
-  </si>
-  <si>
-    <t>Population, female</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female</t>
-  </si>
-  <si>
-    <t>Hospital beds (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Age population, age 22, female, interpolated</t>
-  </si>
-  <si>
-    <t>Labor force, female</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Male population 35-39</t>
-  </si>
-  <si>
-    <t>Age population, age 08, male, interpolated</t>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>Age population, age 20, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Physicians (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
+    <t>Male population 40-44</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Number of people who are undernourished</t>
+  </si>
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 19, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
+    <t>Urban population (% of total)</t>
+  </si>
+  <si>
+    <t>Rural population (% of total population)</t>
   </si>
   <si>
     <t>Population ages 15-19, male (% of male population)</t>
   </si>
   <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 21, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 35-39</t>
-  </si>
-  <si>
-    <t>Age population, age 21, female, interpolated</t>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>Female population 40-44</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 18, male, interpolated</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
+    <t>Female population 80+</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
+    <t>Age population, age 18, female, interpolated</t>
   </si>
   <si>
     <t>Forest area (sq. km)</t>
   </si>
   <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
-    <t>Male population 45-49</t>
-  </si>
-  <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
-    <t>Male population 40-44</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>Age population, age 09, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
-    <t>Age population, age 20, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Female population 80+</t>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>Male population 70-74</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Female population 15-19</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
   </si>
   <si>
     <t>GDP growth (annual %)</t>
   </si>
   <si>
-    <t>Female population 40-44</t>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Female population 75-79</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, male</t>
   </si>
   <si>
     <t>Population ages 55-59, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Age population, age 19, male, interpolated</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services (% of population)</t>
+    <t>Age population, age 16, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 10-14</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Urban population</t>
+  </si>
+  <si>
+    <t>Female population 10-14</t>
+  </si>
+  <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age population, age 15, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 16, female, interpolated</t>
   </si>
   <si>
     <t>Population ages 15-19, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, male (%)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, female (%)</t>
-  </si>
-  <si>
-    <t>GNI, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Female population 75-79</t>
-  </si>
-  <si>
-    <t>Age population, age 19, female, interpolated</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
-    <t>Population ages10-14, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 10, male, interpolated</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Urban population (% of total)</t>
-  </si>
-  <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 18, male, interpolated</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
-    <t>Urban population</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
-    <t>Male population 70-74</t>
-  </si>
-  <si>
-    <t>Age population, age 18, female, interpolated</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Female population 15-19</t>
-  </si>
-  <si>
-    <t>Age population, age 17, male, interpolated</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, total</t>
-  </si>
-  <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 10-14</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Net official development assistance received (current US$)</t>
-  </si>
-  <si>
-    <t>Female population 10-14</t>
-  </si>
-  <si>
-    <t>Age population, age 17, female, interpolated</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 16, male, interpolated</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+    <t>Population ages 40-44, male (% of male population)</t>
   </si>
   <si>
     <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 12, female, interpolated</t>
+  </si>
+  <si>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
+    <t>Age population, age 13, male, interpolated</t>
   </si>
 </sst>
 </file>
@@ -986,7 +1028,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C204"/>
+  <dimension ref="A1:C218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1005,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>73.8358698719737</v>
+        <v>548.5088594058517</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1016,7 +1058,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>73.62032389289945</v>
+        <v>246.0067705230114</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1027,7 +1069,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>73.61302663114574</v>
+        <v>119.57399015487</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1038,7 +1080,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>73.38746793245774</v>
+        <v>119.57399015487</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1049,7 +1091,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>62.0058383248169</v>
+        <v>88.16845804764507</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1060,7 +1102,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>55.6302985360802</v>
+        <v>58.88337212014013</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1071,7 +1113,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>54.95035109337796</v>
+        <v>58.66731106453301</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1082,7 +1124,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>50.51770257715396</v>
+        <v>58.4485613811488</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1093,7 +1135,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>42.9220348851914</v>
+        <v>58.11718455171655</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1104,7 +1146,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>38.95004244409095</v>
+        <v>58.04645707100396</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1115,7 +1157,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>38.91525960257265</v>
+        <v>58.04412568004482</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1126,7 +1168,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>38.81001066056734</v>
+        <v>58.0365193498656</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1137,7 +1179,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>37.87922549577608</v>
+        <v>58.03589385060273</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1148,7 +1190,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>37.87922549577608</v>
+        <v>58.02060305561189</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1159,7 +1201,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>37.46728635689383</v>
+        <v>57.62565836492056</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1170,7 +1212,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>37.46728635689383</v>
+        <v>56.72317762871732</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1181,7 +1223,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>36.03535404628929</v>
+        <v>56.362562449661</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1192,7 +1234,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>36.03535404628929</v>
+        <v>55.97476309070406</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1203,7 +1245,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>33.705634509167</v>
+        <v>51.67570770087639</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1214,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>33.5372659076702</v>
+        <v>50.78366839162259</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1225,7 +1267,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>33.12328979386783</v>
+        <v>48.58981630601615</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1236,7 +1278,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>33.1182594014989</v>
+        <v>45.04009518944782</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1247,7 +1289,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>33.11261684557886</v>
+        <v>44.33144043312313</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1258,7 +1300,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>33.10726940149038</v>
+        <v>38.82599000079638</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1269,7 +1311,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>32.99891944357908</v>
+        <v>38.55039327623216</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1280,7 +1322,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>32.98013901089685</v>
+        <v>36.30944631599522</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1291,7 +1333,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>32.93704039700154</v>
+        <v>35.20090098799884</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1302,7 +1344,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>32.93704039700154</v>
+        <v>35.20090098799884</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1313,7 +1355,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>32.906155318662</v>
+        <v>34.94570418716359</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1324,7 +1366,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>32.8624837693968</v>
+        <v>34.94570418716359</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1335,7 +1377,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>32.63827798381711</v>
+        <v>34.78240255798013</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1346,7 +1388,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>32.56810627837123</v>
+        <v>34.11660813861132</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1357,7 +1399,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>32.4769957910026</v>
+        <v>34.07242768092869</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1368,7 +1410,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>32.35191596418974</v>
+        <v>33.57432631349096</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1379,7 +1421,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>32.08958725253797</v>
+        <v>33.57432631349096</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1390,7 +1432,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>32.02536693249803</v>
+        <v>32.37993559705362</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1401,7 +1443,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>31.92848388590683</v>
+        <v>31.50047473593936</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1412,7 +1454,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>31.90850772224048</v>
+        <v>31.32372987701874</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1423,7 +1465,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>31.73133888832831</v>
+        <v>31.31937656349297</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1434,7 +1476,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>31.4424354034765</v>
+        <v>31.27425812051686</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1445,7 +1487,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>31.43817532844132</v>
+        <v>31.27367320255677</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1456,7 +1498,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>31.40027170016645</v>
+        <v>31.25024633737895</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1467,7 +1509,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>31.35586743771406</v>
+        <v>31.22523640838398</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1478,7 +1520,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>31.35427894892613</v>
+        <v>31.2175424053401</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1489,7 +1531,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>31.27271179167016</v>
+        <v>31.20640493217435</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1500,7 +1542,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>30.17982919842262</v>
+        <v>31.15731836108692</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1511,7 +1553,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>29.46189318544023</v>
+        <v>31.14477400078895</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1522,7 +1564,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>29.44910510153321</v>
+        <v>31.12986995766135</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1533,7 +1575,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>29.07905241962339</v>
+        <v>31.11286123420768</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1544,7 +1586,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>28.74097343656151</v>
+        <v>31.0945525568641</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1555,7 +1597,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>28.7187201276257</v>
+        <v>31.07086912422963</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1566,7 +1608,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>28.5797960192109</v>
+        <v>31.05346104703267</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1577,7 +1619,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>27.97724968914235</v>
+        <v>31.0519670034543</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1588,7 +1630,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>27.97122460216345</v>
+        <v>31.05022654640971</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1599,7 +1641,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>27.96671504704748</v>
+        <v>31.03542591385134</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1610,7 +1652,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>27.95673919104835</v>
+        <v>31.03540210397221</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1621,7 +1663,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>27.51366280632108</v>
+        <v>30.96518144219468</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1632,7 +1674,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>27.05166701353253</v>
+        <v>30.85010020719832</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1643,7 +1685,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>26.8577575750989</v>
+        <v>30.84937215192979</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1654,7 +1696,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>26.57787166876392</v>
+        <v>30.82936158893671</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1665,10 +1707,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>25.60655614500586</v>
+        <v>30.70939123644946</v>
       </c>
       <c r="C62">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1676,10 +1718,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>25.58841138010522</v>
+        <v>30.45961767204674</v>
       </c>
       <c r="C63">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1687,10 +1729,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>25.47432884382712</v>
+        <v>30.41730797253005</v>
       </c>
       <c r="C64">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1698,10 +1740,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>25.4198310982304</v>
+        <v>29.95174424090034</v>
       </c>
       <c r="C65">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1709,10 +1751,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>25.3521386487841</v>
+        <v>28.8802799534195</v>
       </c>
       <c r="C66">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1720,10 +1762,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>24.95916209081802</v>
+        <v>28.56368113205672</v>
       </c>
       <c r="C67">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1731,10 +1773,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>24.69965947284085</v>
+        <v>28.47480130736908</v>
       </c>
       <c r="C68">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1742,10 +1784,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>23.43060141546346</v>
+        <v>27.96205257788627</v>
       </c>
       <c r="C69">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1753,10 +1795,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>23.24624981680282</v>
+        <v>27.9492721767827</v>
       </c>
       <c r="C70">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1764,10 +1806,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>23.20876823633757</v>
+        <v>27.87290278529878</v>
       </c>
       <c r="C71">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1775,10 +1817,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>22.96007088242958</v>
+        <v>27.78521511957378</v>
       </c>
       <c r="C72">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1786,10 +1828,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>22.75433875742165</v>
+        <v>27.55107415984916</v>
       </c>
       <c r="C73">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1797,10 +1839,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>22.68836391301027</v>
+        <v>26.99253392412738</v>
       </c>
       <c r="C74">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1808,7 +1850,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>22.65793574859573</v>
+        <v>25.80553458715978</v>
       </c>
       <c r="C75">
         <v>1e-05</v>
@@ -1819,10 +1861,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>22.47216359367161</v>
+        <v>25.80553458715978</v>
       </c>
       <c r="C76">
-        <v>2e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1830,10 +1872,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>22.38793067440259</v>
+        <v>25.46829194542459</v>
       </c>
       <c r="C77">
-        <v>2e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1841,10 +1883,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>21.89877358463612</v>
+        <v>25.22611245575554</v>
       </c>
       <c r="C78">
-        <v>2e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1852,10 +1894,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>21.17116160612959</v>
+        <v>25.2208306444233</v>
       </c>
       <c r="C79">
-        <v>3e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1863,10 +1905,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>21.00447708061158</v>
+        <v>25.21493216582601</v>
       </c>
       <c r="C80">
-        <v>3e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1874,10 +1916,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>20.91358116665977</v>
+        <v>25.18966221733537</v>
       </c>
       <c r="C81">
-        <v>3e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1885,10 +1927,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>20.67483779823284</v>
+        <v>25.17144067378584</v>
       </c>
       <c r="C82">
-        <v>3e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1896,10 +1938,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>20.59704449691057</v>
+        <v>25.15286658959749</v>
       </c>
       <c r="C83">
-        <v>3e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1907,10 +1949,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>20.17488773267193</v>
+        <v>25.01975634889845</v>
       </c>
       <c r="C84">
-        <v>4e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1918,10 +1960,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>19.94212072530067</v>
+        <v>24.87369310456236</v>
       </c>
       <c r="C85">
-        <v>4e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1929,10 +1971,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>19.45964582385173</v>
+        <v>24.84146493557589</v>
       </c>
       <c r="C86">
-        <v>5e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1940,10 +1982,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>19.4421300396441</v>
+        <v>24.03843441835667</v>
       </c>
       <c r="C87">
-        <v>5e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1951,10 +1993,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>19.37896155665101</v>
+        <v>23.24450807653707</v>
       </c>
       <c r="C88">
-        <v>5e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1962,10 +2004,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>19.16085711779441</v>
+        <v>23.20458766542319</v>
       </c>
       <c r="C89">
-        <v>6e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1973,10 +2015,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>19.14441497252638</v>
+        <v>23.03695489142464</v>
       </c>
       <c r="C90">
-        <v>6e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1984,10 +2026,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>18.90447503673265</v>
+        <v>22.66774618179866</v>
       </c>
       <c r="C91">
-        <v>6e-05</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1995,10 +2037,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>18.69158141260281</v>
+        <v>22.52790653853913</v>
       </c>
       <c r="C92">
-        <v>6.999999999999999e-05</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2006,10 +2048,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>18.66254249913739</v>
+        <v>22.50847025791771</v>
       </c>
       <c r="C93">
-        <v>6.999999999999999e-05</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2017,10 +2059,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>18.57350470347902</v>
+        <v>22.10320261507979</v>
       </c>
       <c r="C94">
-        <v>6.999999999999999e-05</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2028,10 +2070,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>18.41932502913714</v>
+        <v>21.62578298705862</v>
       </c>
       <c r="C95">
-        <v>6.999999999999999e-05</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2039,10 +2081,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>18.13534552623094</v>
+        <v>21.45055113865743</v>
       </c>
       <c r="C96">
-        <v>8.000000000000001e-05</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2050,10 +2092,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>17.98966942018511</v>
+        <v>21.43833433510963</v>
       </c>
       <c r="C97">
-        <v>9.000000000000001e-05</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2061,10 +2103,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>17.88171480766897</v>
+        <v>21.25783377230883</v>
       </c>
       <c r="C98">
-        <v>9.000000000000001e-05</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2072,10 +2114,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>17.63011972915463</v>
+        <v>21.16350560715782</v>
       </c>
       <c r="C99">
-        <v>0.0001</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2083,10 +2125,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>17.60919527711978</v>
+        <v>21.12935624984495</v>
       </c>
       <c r="C100">
-        <v>0.0001</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2094,10 +2136,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>17.5740875711841</v>
+        <v>21.05218037609344</v>
       </c>
       <c r="C101">
-        <v>0.0001</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2105,10 +2147,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>17.57243050748354</v>
+        <v>21.0268918413794</v>
       </c>
       <c r="C102">
-        <v>0.0001</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2116,10 +2158,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>17.54310791228402</v>
+        <v>20.75412334104195</v>
       </c>
       <c r="C103">
-        <v>0.0001</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2127,10 +2169,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>17.38232022370475</v>
+        <v>20.72086846564337</v>
       </c>
       <c r="C104">
-        <v>0.00011</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2138,10 +2180,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>17.36327259754519</v>
+        <v>20.72086846564337</v>
       </c>
       <c r="C105">
-        <v>0.00011</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2149,10 +2191,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>17.32463495156931</v>
+        <v>20.62998382696628</v>
       </c>
       <c r="C106">
-        <v>0.00011</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2160,10 +2202,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>17.1455968262908</v>
+        <v>20.57866140924843</v>
       </c>
       <c r="C107">
-        <v>0.00012</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2171,10 +2213,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>17.11449247093458</v>
+        <v>20.41376948251923</v>
       </c>
       <c r="C108">
-        <v>0.00012</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2182,10 +2224,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>17.1051068656061</v>
+        <v>20.14540195573676</v>
       </c>
       <c r="C109">
-        <v>0.00012</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2193,10 +2235,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>17.0984519576182</v>
+        <v>20.12899739101869</v>
       </c>
       <c r="C110">
-        <v>0.00012</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2204,10 +2246,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>17.05905013503619</v>
+        <v>19.11277365249581</v>
       </c>
       <c r="C111">
-        <v>0.00013</v>
+        <v>6e-05</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2215,10 +2257,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>16.19728370879928</v>
+        <v>19.10952258312878</v>
       </c>
       <c r="C112">
-        <v>0.00018</v>
+        <v>6e-05</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2226,10 +2268,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>16.16888214923139</v>
+        <v>18.95197551732524</v>
       </c>
       <c r="C113">
-        <v>0.00018</v>
+        <v>6.999999999999999e-05</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2237,10 +2279,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>15.85483244429375</v>
+        <v>18.2052126883366</v>
       </c>
       <c r="C114">
-        <v>0.00021</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2248,10 +2290,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>15.48788139227971</v>
+        <v>18.03039177828064</v>
       </c>
       <c r="C115">
-        <v>0.00024</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2259,10 +2301,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>15.46119233178671</v>
+        <v>18.0231778821905</v>
       </c>
       <c r="C116">
-        <v>0.00024</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2270,10 +2312,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>15.43177082322835</v>
+        <v>17.89514341424434</v>
       </c>
       <c r="C117">
-        <v>0.00024</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2281,10 +2323,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>15.1936556464969</v>
+        <v>17.72112245875864</v>
       </c>
       <c r="C118">
-        <v>0.00027</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2292,10 +2334,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>14.91018361772157</v>
+        <v>17.61055344333947</v>
       </c>
       <c r="C119">
-        <v>0.0003</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2303,10 +2345,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>14.83892311892866</v>
+        <v>17.58945425150224</v>
       </c>
       <c r="C120">
-        <v>0.00031</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2314,10 +2356,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>13.58108855198578</v>
+        <v>17.55575599159414</v>
       </c>
       <c r="C121">
-        <v>0.00053</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2325,10 +2367,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>13.4456430892016</v>
+        <v>17.52928414389714</v>
       </c>
       <c r="C122">
-        <v>0.00056</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2336,10 +2378,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>13.41499484721246</v>
+        <v>17.46383136954954</v>
       </c>
       <c r="C123">
-        <v>0.00057</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2347,10 +2389,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>13.15373542736198</v>
+        <v>17.43671498126985</v>
       </c>
       <c r="C124">
-        <v>0.0006400000000000001</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2358,10 +2400,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>13.10616306956349</v>
+        <v>17.38279624886195</v>
       </c>
       <c r="C125">
-        <v>0.00065</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2369,10 +2411,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>13.01752253699478</v>
+        <v>17.36338847506778</v>
       </c>
       <c r="C126">
-        <v>0.00068</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2380,10 +2422,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>12.73899914261406</v>
+        <v>17.33423460859671</v>
       </c>
       <c r="C127">
-        <v>0.00076</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2391,10 +2433,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>12.73803346877762</v>
+        <v>17.15714455610197</v>
       </c>
       <c r="C128">
-        <v>0.00076</v>
+        <v>0.00013</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2402,10 +2444,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>12.72668034646396</v>
+        <v>17.10586634765313</v>
       </c>
       <c r="C129">
-        <v>0.00077</v>
+        <v>0.00014</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2413,10 +2455,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>12.47839588192905</v>
+        <v>17.00287243636319</v>
       </c>
       <c r="C130">
-        <v>0.00085</v>
+        <v>0.00014</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2424,10 +2466,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>12.26681141276849</v>
+        <v>16.95610515189783</v>
       </c>
       <c r="C131">
-        <v>0.0009300000000000001</v>
+        <v>0.00014</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2435,10 +2477,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>12.07040859918595</v>
+        <v>16.91680124718307</v>
       </c>
       <c r="C132">
-        <v>0.00102</v>
+        <v>0.00015</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2446,10 +2488,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>11.99416752178512</v>
+        <v>16.78245907298279</v>
       </c>
       <c r="C133">
-        <v>0.00105</v>
+        <v>0.00015</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2457,10 +2499,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>11.97156966892839</v>
+        <v>16.56358201971133</v>
       </c>
       <c r="C134">
-        <v>0.00106</v>
+        <v>0.00017</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2468,10 +2510,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>11.96500201817333</v>
+        <v>16.44352014713367</v>
       </c>
       <c r="C135">
-        <v>0.00107</v>
+        <v>0.00018</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2479,10 +2521,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>11.79618087509934</v>
+        <v>16.28732771890061</v>
       </c>
       <c r="C136">
-        <v>0.00115</v>
+        <v>0.00019</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2490,10 +2532,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>11.52514795090821</v>
+        <v>16.27710408341993</v>
       </c>
       <c r="C137">
-        <v>0.00129</v>
+        <v>0.00019</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2501,10 +2543,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>11.5221089827948</v>
+        <v>16.27218107251734</v>
       </c>
       <c r="C138">
-        <v>0.0013</v>
+        <v>0.00019</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2512,10 +2554,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>11.50117326677379</v>
+        <v>16.21921207493308</v>
       </c>
       <c r="C139">
-        <v>0.00131</v>
+        <v>0.00019</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2523,10 +2565,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>11.39320093317622</v>
+        <v>15.98115349579786</v>
       </c>
       <c r="C140">
-        <v>0.00137</v>
+        <v>0.00021</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2534,10 +2576,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>11.36184164891992</v>
+        <v>15.96618983441904</v>
       </c>
       <c r="C141">
-        <v>0.00139</v>
+        <v>0.00021</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2545,10 +2587,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>11.30324294377227</v>
+        <v>15.91247456899681</v>
       </c>
       <c r="C142">
-        <v>0.00143</v>
+        <v>0.00022</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2556,10 +2598,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>11.23675261846037</v>
+        <v>15.87550169410627</v>
       </c>
       <c r="C143">
-        <v>0.00147</v>
+        <v>0.00022</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2567,10 +2609,10 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>11.22824725187445</v>
+        <v>15.45425184474049</v>
       </c>
       <c r="C144">
-        <v>0.00148</v>
+        <v>0.00026</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2578,10 +2620,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>11.17997413909732</v>
+        <v>14.89135758718092</v>
       </c>
       <c r="C145">
-        <v>0.00151</v>
+        <v>0.00033</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2589,10 +2631,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>11.178264885102</v>
+        <v>14.83100981613618</v>
       </c>
       <c r="C146">
-        <v>0.00151</v>
+        <v>0.00034</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2600,10 +2642,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>11.16481675479808</v>
+        <v>14.3060843774835</v>
       </c>
       <c r="C147">
-        <v>0.00152</v>
+        <v>0.00042</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2611,10 +2653,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>11.16392293624136</v>
+        <v>14.04921609106207</v>
       </c>
       <c r="C148">
-        <v>0.00152</v>
+        <v>0.00046</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2622,10 +2664,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>11.1584297718656</v>
+        <v>14.03712523116006</v>
       </c>
       <c r="C149">
-        <v>0.00152</v>
+        <v>0.00046</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2633,10 +2675,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>11.09994034951932</v>
+        <v>14.02381558138775</v>
       </c>
       <c r="C150">
-        <v>0.00156</v>
+        <v>0.00047</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2644,10 +2686,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>11.09150282424958</v>
+        <v>13.98916261324664</v>
       </c>
       <c r="C151">
-        <v>0.00157</v>
+        <v>0.00047</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2655,10 +2697,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>11.06862893763453</v>
+        <v>13.68796311578376</v>
       </c>
       <c r="C152">
-        <v>0.00158</v>
+        <v>0.00054</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2666,10 +2708,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>11.03254248138721</v>
+        <v>13.42992633429175</v>
       </c>
       <c r="C153">
-        <v>0.00161</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2677,10 +2719,10 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>11.01777610739024</v>
+        <v>13.33672746022328</v>
       </c>
       <c r="C154">
-        <v>0.00162</v>
+        <v>0.00062</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2688,10 +2730,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>10.83892667346398</v>
+        <v>12.99823079368173</v>
       </c>
       <c r="C155">
-        <v>0.00176</v>
+        <v>0.00072</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2699,10 +2741,10 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>10.72310139047782</v>
+        <v>12.6577247015321</v>
       </c>
       <c r="C156">
-        <v>0.00185</v>
+        <v>0.00083</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2710,10 +2752,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>10.70027128944535</v>
+        <v>12.426397577878</v>
       </c>
       <c r="C157">
-        <v>0.00187</v>
+        <v>0.00092</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2721,10 +2763,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>10.66453358094396</v>
+        <v>12.24604824083331</v>
       </c>
       <c r="C158">
-        <v>0.0019</v>
+        <v>0.00099</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2732,10 +2774,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>10.52430386065664</v>
+        <v>11.96621654795308</v>
       </c>
       <c r="C159">
-        <v>0.00202</v>
+        <v>0.00112</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2743,10 +2785,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>10.41354274335159</v>
+        <v>11.89820209397594</v>
       </c>
       <c r="C160">
-        <v>0.00213</v>
+        <v>0.00115</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2754,10 +2796,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>10.38921959769225</v>
+        <v>11.82850523753633</v>
       </c>
       <c r="C161">
-        <v>0.00215</v>
+        <v>0.00119</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2765,10 +2807,10 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>10.38636309462364</v>
+        <v>11.81560113825965</v>
       </c>
       <c r="C162">
-        <v>0.00215</v>
+        <v>0.00119</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2776,10 +2818,10 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>10.35416839774302</v>
+        <v>11.65166816874486</v>
       </c>
       <c r="C163">
-        <v>0.00219</v>
+        <v>0.00128</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2787,10 +2829,10 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>10.34745259657548</v>
+        <v>11.51269426965573</v>
       </c>
       <c r="C164">
-        <v>0.00219</v>
+        <v>0.00136</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2798,10 +2840,10 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>10.3163366206857</v>
+        <v>11.44772323344568</v>
       </c>
       <c r="C165">
-        <v>0.00222</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2809,10 +2851,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>10.31332085379582</v>
+        <v>11.08713244085568</v>
       </c>
       <c r="C166">
-        <v>0.00223</v>
+        <v>0.00164</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2820,10 +2862,10 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>10.26878726300795</v>
+        <v>11.08713244085527</v>
       </c>
       <c r="C167">
-        <v>0.00227</v>
+        <v>0.00164</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2831,10 +2873,10 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>10.22983002116745</v>
+        <v>10.95530997588735</v>
       </c>
       <c r="C168">
-        <v>0.00231</v>
+        <v>0.00174</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2842,10 +2884,10 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>10.22883890876699</v>
+        <v>10.91262284641263</v>
       </c>
       <c r="C169">
-        <v>0.00231</v>
+        <v>0.00177</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2853,10 +2895,10 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>10.19840323302561</v>
+        <v>10.90387866491889</v>
       </c>
       <c r="C170">
-        <v>0.00235</v>
+        <v>0.00178</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2864,10 +2906,10 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>10.1729211980545</v>
+        <v>10.81286751051664</v>
       </c>
       <c r="C171">
-        <v>0.00237</v>
+        <v>0.00185</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2875,10 +2917,10 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>10.08763746012097</v>
+        <v>10.62957383573386</v>
       </c>
       <c r="C172">
-        <v>0.00247</v>
+        <v>0.00201</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2886,10 +2928,10 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>10.08763746011998</v>
+        <v>10.39133031616526</v>
       </c>
       <c r="C173">
-        <v>0.00247</v>
+        <v>0.00223</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2897,10 +2939,10 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>10.05677579334349</v>
+        <v>10.21395096448115</v>
       </c>
       <c r="C174">
-        <v>0.0025</v>
+        <v>0.00242</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2908,10 +2950,10 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>9.85722566215126</v>
+        <v>10.12192158935383</v>
       </c>
       <c r="C175">
-        <v>0.00274</v>
+        <v>0.00252</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2919,10 +2961,10 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>9.710044990246709</v>
+        <v>10.03109448311039</v>
       </c>
       <c r="C176">
-        <v>0.00293</v>
+        <v>0.00262</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2930,10 +2972,10 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>9.604666965075744</v>
+        <v>10.01012818475539</v>
       </c>
       <c r="C177">
-        <v>0.00308</v>
+        <v>0.00265</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2941,10 +2983,10 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>9.486151583492017</v>
+        <v>9.998821169829899</v>
       </c>
       <c r="C178">
-        <v>0.00325</v>
+        <v>0.00266</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2952,10 +2994,10 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>9.483186230816592</v>
+        <v>9.862832062484914</v>
       </c>
       <c r="C179">
-        <v>0.00326</v>
+        <v>0.00283</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2963,10 +3005,10 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>9.295701101546769</v>
+        <v>9.8581258124687</v>
       </c>
       <c r="C180">
-        <v>0.00355</v>
+        <v>0.00284</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2974,10 +3016,10 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>9.21652052216316</v>
+        <v>9.571307309938636</v>
       </c>
       <c r="C181">
-        <v>0.00369</v>
+        <v>0.00323</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2985,10 +3027,10 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>9.068491482159533</v>
+        <v>9.559977924059121</v>
       </c>
       <c r="C182">
-        <v>0.00395</v>
+        <v>0.00325</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2996,10 +3038,10 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>9.056414741193159</v>
+        <v>9.545476951158735</v>
       </c>
       <c r="C183">
-        <v>0.00397</v>
+        <v>0.00327</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3007,10 +3049,10 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>9.053870271992604</v>
+        <v>9.437711115401699</v>
       </c>
       <c r="C184">
-        <v>0.00398</v>
+        <v>0.00344</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3018,10 +3060,10 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>8.598491317939315</v>
+        <v>9.415726918763905</v>
       </c>
       <c r="C185">
-        <v>0.00493</v>
+        <v>0.00347</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3029,10 +3071,10 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>8.571491311971831</v>
+        <v>9.413520615704515</v>
       </c>
       <c r="C186">
-        <v>0.00499</v>
+        <v>0.00347</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3040,10 +3082,10 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>8.552848048866682</v>
+        <v>9.413520615704396</v>
       </c>
       <c r="C187">
-        <v>0.00503</v>
+        <v>0.00347</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3051,10 +3093,10 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>8.516802307795363</v>
+        <v>9.312950339445827</v>
       </c>
       <c r="C188">
-        <v>0.00512</v>
+        <v>0.00364</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3062,10 +3104,10 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>8.455992262025045</v>
+        <v>9.300131011335171</v>
       </c>
       <c r="C189">
-        <v>0.00527</v>
+        <v>0.00366</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3073,10 +3115,10 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>8.410597614553946</v>
+        <v>9.129218380425005</v>
       </c>
       <c r="C190">
-        <v>0.00538</v>
+        <v>0.00396</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3084,10 +3126,10 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>8.406180035841849</v>
+        <v>9.093408232436602</v>
       </c>
       <c r="C191">
-        <v>0.0054</v>
+        <v>0.00402</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3095,10 +3137,10 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>8.267289564186836</v>
+        <v>8.864912104032685</v>
       </c>
       <c r="C192">
-        <v>0.00576</v>
+        <v>0.00447</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3106,10 +3148,10 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>8.219214870224246</v>
+        <v>8.817991401382127</v>
       </c>
       <c r="C193">
-        <v>0.0059</v>
+        <v>0.00457</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3117,10 +3159,10 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>8.138426660409884</v>
+        <v>8.814706914322556</v>
       </c>
       <c r="C194">
-        <v>0.00613</v>
+        <v>0.00458</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3128,10 +3170,10 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>8.132493171310612</v>
+        <v>8.812192358825518</v>
       </c>
       <c r="C195">
-        <v>0.00615</v>
+        <v>0.00458</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3139,10 +3181,10 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>8.132493171310612</v>
+        <v>8.677487576154652</v>
       </c>
       <c r="C196">
-        <v>0.00615</v>
+        <v>0.00488</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3150,10 +3192,10 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>7.977789364771873</v>
+        <v>8.568379369785662</v>
       </c>
       <c r="C197">
-        <v>0.00662</v>
+        <v>0.00514</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3161,10 +3203,10 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>7.835515716080073</v>
+        <v>8.56049010366794</v>
       </c>
       <c r="C198">
-        <v>0.00709</v>
+        <v>0.00515</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3172,10 +3214,10 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>7.824705924320624</v>
+        <v>8.501769833661783</v>
       </c>
       <c r="C199">
-        <v>0.00713</v>
+        <v>0.0053</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3183,10 +3225,10 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>7.766525546834655</v>
+        <v>8.356337731739389</v>
       </c>
       <c r="C200">
-        <v>0.00733</v>
+        <v>0.00567</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3194,10 +3236,10 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>7.654576861496342</v>
+        <v>8.30242558886482</v>
       </c>
       <c r="C201">
-        <v>0.00774</v>
+        <v>0.00582</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3205,10 +3247,10 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>7.50915832126323</v>
+        <v>8.275854696112773</v>
       </c>
       <c r="C202">
-        <v>0.0083</v>
+        <v>0.00589</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3216,10 +3258,10 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>7.480800825744369</v>
+        <v>8.145093790949613</v>
       </c>
       <c r="C203">
-        <v>0.00842</v>
+        <v>0.00627</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3227,10 +3269,164 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>7.291570699656421</v>
+        <v>8.128670806468387</v>
       </c>
       <c r="C204">
-        <v>0.00923</v>
+        <v>0.00632</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205">
+        <v>8.050114800777413</v>
+      </c>
+      <c r="C205">
+        <v>0.00656</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206">
+        <v>8.027159173168139</v>
+      </c>
+      <c r="C206">
+        <v>0.00663</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207">
+        <v>7.88325251088622</v>
+      </c>
+      <c r="C207">
+        <v>0.0071</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208">
+        <v>7.784708714595386</v>
+      </c>
+      <c r="C208">
+        <v>0.00744</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209">
+        <v>7.777546672378734</v>
+      </c>
+      <c r="C209">
+        <v>0.00746</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210">
+        <v>7.667008892930601</v>
+      </c>
+      <c r="C210">
+        <v>0.00787</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211">
+        <v>7.658169180484779</v>
+      </c>
+      <c r="C211">
+        <v>0.007900000000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212">
+        <v>7.504838392595047</v>
+      </c>
+      <c r="C212">
+        <v>0.00851</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213">
+        <v>7.452892224676353</v>
+      </c>
+      <c r="C213">
+        <v>0.00872</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214">
+        <v>7.413961120429935</v>
+      </c>
+      <c r="C214">
+        <v>0.00889</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215">
+        <v>7.331780711914964</v>
+      </c>
+      <c r="C215">
+        <v>0.00925</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216">
+        <v>7.253282272093962</v>
+      </c>
+      <c r="C216">
+        <v>0.00961</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217">
+        <v>7.230140306270261</v>
+      </c>
+      <c r="C217">
+        <v>0.00971</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218">
+        <v>7.215889471759016</v>
+      </c>
+      <c r="C218">
+        <v>0.00978</v>
       </c>
     </row>
   </sheetData>
